--- a/medidascluster1.xlsx
+++ b/medidascluster1.xlsx
@@ -89,58 +89,58 @@
     <t>VL_OBSERVADO_2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Min.   :0.0000  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Qu.:0.2710  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median :0.3250  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean   :0.3329  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Qu.:0.3870  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max.   :0.5850  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min.   :0.000  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Qu.:0.612  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median :0.703  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean   :0.702  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Qu.:0.806  </t>
+    <t xml:space="preserve">Min.   :0.1560  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:0.3000  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median :0.3560  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean   :0.3668  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Qu.:0.4290  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max.   :0.6960  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min.   :0.410  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:0.719  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median :0.787  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean   :0.785  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Qu.:0.848  </t>
   </si>
   <si>
     <t xml:space="preserve">Max.   :1.000  </t>
   </si>
   <si>
-    <t xml:space="preserve">Min.   :0.03438  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Qu.:0.06094  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median :0.06719  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean   :0.06674  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Qu.:0.07344  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max.   :0.09375  </t>
+    <t xml:space="preserve">Min.   :2.300  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:3.700  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median :4.100  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean   :4.062  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Qu.:4.400  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max.   :5.500  </t>
   </si>
 </sst>
 </file>
